--- a/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -230,23 +230,24 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>工作月</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>WorkSeason</t>
+  </si>
+  <si>
+    <t>工作季</t>
   </si>
   <si>
     <t>WorkMonth</t>
-  </si>
-  <si>
-    <t>工作月</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>WorkSeason</t>
-  </si>
-  <si>
-    <t>工作季</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,6 +559,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -569,15 +579,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -889,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -906,10 +907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
@@ -921,8 +922,8 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -934,10 +935,10 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
@@ -949,10 +950,10 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
@@ -960,10 +961,10 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
@@ -973,10 +974,10 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -984,10 +985,10 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1185,16 +1186,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="44">
+      <c r="E17" s="40">
         <v>6</v>
       </c>
       <c r="F17" s="33"/>
@@ -1205,16 +1206,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="44">
+      <c r="D18" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="40">
         <v>5</v>
       </c>
       <c r="F18" s="33"/>
@@ -1308,9 +1309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1337,7 +1338,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -218,10 +218,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>PfItDetailAdjust</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -242,11 +238,15 @@
     <t>工作季</t>
   </si>
   <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>WorkMonth</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
+    <t>CustNo,FacmNo,WorkMonth</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,9 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -890,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -907,12 +904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>50</v>
@@ -922,8 +919,8 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -935,10 +932,10 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
@@ -950,10 +947,10 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
@@ -961,12 +958,12 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -974,10 +971,10 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -985,10 +982,10 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1071,158 +1068,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="39">
+        <v>6</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="37">
-        <v>16</v>
-      </c>
-      <c r="F13" s="33">
-        <v>2</v>
-      </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="B13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="39">
+        <v>5</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="37">
-        <v>16</v>
-      </c>
-      <c r="F14" s="33">
-        <v>2</v>
-      </c>
-      <c r="G14" s="34"/>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>16</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>2</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="37">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="36">
+        <v>16</v>
+      </c>
+      <c r="F16" s="32">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="40">
-        <v>6</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="36">
+        <v>16</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="40">
-        <v>5</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="36">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1238,7 +1235,7 @@
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1309,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -1335,10 +1332,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -164,89 +164,89 @@
     <t>LogNo</t>
   </si>
   <si>
+    <t>AdjPerfEqAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfReward</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjCntingCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>業調整後務報酬</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後業績金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>介紹人業績調整檔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustFacmFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作月</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>WorkSeason</t>
+  </si>
+  <si>
+    <t>工作季</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,WorkMonth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>0:無調整
 1:調整本月   
 2:調整本月及季累計</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AdjPerfEqAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfReward</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfAmt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjCntingCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整記號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後換算業績</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>業調整後務報酬</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後業績金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>調整後是否計件</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>介紹人業績調整檔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>PfItDetailAdjust</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustFacmFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作月</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>WorkSeason</t>
-  </si>
-  <si>
-    <t>工作季</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,WorkMonth</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +888,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -909,10 +909,10 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>32</v>
@@ -1074,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="39">
         <v>6</v>
@@ -1094,13 +1094,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="39">
         <v>5</v>
@@ -1114,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>21</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="33" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1136,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>21</v>
@@ -1158,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>21</v>
@@ -1180,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>21</v>
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>27</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>findCustFacmFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>工作月</t>
   </si>
   <si>
@@ -224,15 +220,7 @@
     <t>工作季</t>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND WorkMonth = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>WorkMonth</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,WorkMonth</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -247,6 +235,26 @@
   </si>
   <si>
     <t>PfItDetailAdjust</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,Borm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustFacmBormFirst</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -909,7 +917,7 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>48</v>
@@ -963,7 +971,7 @@
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1052,7 +1060,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
-        <f t="shared" ref="A11:A22" si="0">A10+1</f>
+        <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1068,25 +1076,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E12" s="39">
-        <v>6</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
@@ -1094,63 +1100,61 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E13" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1</v>
+      <c r="B14" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="39">
+        <v>5</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="36">
-        <v>16</v>
-      </c>
-      <c r="F15" s="32">
-        <v>2</v>
-      </c>
-      <c r="G15" s="33"/>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
@@ -1158,10 +1162,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>21</v>
@@ -1180,10 +1184,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>21</v>
@@ -1202,37 +1206,43 @@
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="32">
+        <v>2</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="19"/>
+      <c r="B19" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
@@ -1240,17 +1250,15 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="19">
-        <v>6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
@@ -1258,15 +1266,17 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
@@ -1274,15 +1284,31 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="19">
         <v>6</v>
       </c>
     </row>
@@ -1306,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1358,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
